--- a/Document/更新日记/策划/【Titan】脚本更新记录_邓睿.xlsx
+++ b/Document/更新日记/策划/【Titan】脚本更新记录_邓睿.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="20880" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591">
   <si>
     <t>更新日期</t>
   </si>
@@ -1835,6 +1835,30 @@
   </si>
   <si>
     <t>火女被动技能类型修正</t>
+  </si>
+  <si>
+    <t>火女被动描述</t>
+  </si>
+  <si>
+    <t>Spell.csv;Spell.bin；spellslot.csv；Herotalentconfig</t>
+  </si>
+  <si>
+    <t>幻影利刃合金分身</t>
+  </si>
+  <si>
+    <t>skininfo.csv;Monster.csv；condition.csv;condition.bin;effect.csv;effect.bin;spelllogic.csv</t>
+  </si>
+  <si>
+    <t>龙猫妖术扩散和妖术精进配置方式调优</t>
+  </si>
+  <si>
+    <t>Spell.csv;Spell.bin；spelllogic.csv；Talenteffect.csv</t>
+  </si>
+  <si>
+    <t>龙母骑龙大招准备期间可被控制打断</t>
+  </si>
+  <si>
+    <t>Spell.csv;Spell.bin；spelllogic.csv；buff.csv;buff.xml;effect.csv;effect.bin</t>
   </si>
 </sst>
 </file>
@@ -1882,6 +1906,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1891,14 +1962,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1918,14 +1981,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1940,24 +1995,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1972,49 +2035,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2041,6 +2065,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2053,18 +2083,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2072,18 +2090,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2113,43 +2119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2167,25 +2137,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2203,7 +2173,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2215,13 +2203,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2244,6 +2268,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2259,17 +2316,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2306,33 +2357,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2349,10 +2373,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2361,16 +2385,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2379,115 +2403,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2887,7 +2911,7 @@
   <sheetPr/>
   <dimension ref="A1:H467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
       <selection activeCell="D429" sqref="D429"/>
     </sheetView>
   </sheetViews>
@@ -13752,10 +13776,19 @@
         <v>邓睿【全版本】[内部知晓]:火女被动技能类型修正。(修改文件:Spell.csv;Spell.bin)</v>
       </c>
     </row>
-    <row r="423" spans="2:8">
+    <row r="423" spans="1:8">
+      <c r="A423" s="14">
+        <v>43090</v>
+      </c>
       <c r="B423" s="2">
         <v>424</v>
       </c>
+      <c r="C423" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>584</v>
+      </c>
       <c r="E423" s="1" t="s">
         <v>10</v>
       </c>
@@ -13767,13 +13800,22 @@
       </c>
       <c r="H423" s="9" t="str">
         <f t="shared" ref="H423:H467" si="9">CONCATENATE(F423,"","【",E423,"】[",G423,"]:",C423,"。(修改文件:",D423,")")</f>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="424" spans="2:8">
+        <v>邓睿【全版本】[内部知晓]:火女被动描述。(修改文件:Spell.csv;Spell.bin；spellslot.csv；Herotalentconfig)</v>
+      </c>
+    </row>
+    <row r="424" ht="24" spans="1:8">
+      <c r="A424" s="14">
+        <v>43090</v>
+      </c>
       <c r="B424" s="2">
         <v>425</v>
       </c>
+      <c r="C424" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="E424" s="1" t="s">
         <v>10</v>
       </c>
@@ -13785,13 +13827,22 @@
       </c>
       <c r="H424" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="425" spans="2:8">
+        <v>邓睿【全版本】[内部知晓]:幻影利刃合金分身。(修改文件:skininfo.csv;Monster.csv；condition.csv;condition.bin;effect.csv;effect.bin;spelllogic.csv)</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
+      <c r="A425" s="14">
+        <v>43090</v>
+      </c>
       <c r="B425" s="2">
         <v>426</v>
       </c>
+      <c r="C425" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>588</v>
+      </c>
       <c r="E425" s="1" t="s">
         <v>10</v>
       </c>
@@ -13803,13 +13854,22 @@
       </c>
       <c r="H425" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="426" spans="2:8">
+        <v>邓睿【全版本】[内部知晓]:龙猫妖术扩散和妖术精进配置方式调优。(修改文件:Spell.csv;Spell.bin；spelllogic.csv；Talenteffect.csv)</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
+      <c r="A426" s="14">
+        <v>43091</v>
+      </c>
       <c r="B426" s="2">
         <v>427</v>
       </c>
+      <c r="C426" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>590</v>
+      </c>
       <c r="E426" s="1" t="s">
         <v>10</v>
       </c>
@@ -13821,10 +13881,13 @@
       </c>
       <c r="H426" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="427" spans="2:8">
+        <v>邓睿【全版本】[内部知晓]:龙母骑龙大招准备期间可被控制打断。(修改文件:Spell.csv;Spell.bin；spelllogic.csv；buff.csv;buff.xml;effect.csv;effect.bin)</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="A427" s="14">
+        <v>43091</v>
+      </c>
       <c r="B427" s="2">
         <v>428</v>
       </c>
@@ -13842,7 +13905,13 @@
         <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
       </c>
     </row>
-    <row r="428" spans="5:8">
+    <row r="428" spans="1:8">
+      <c r="A428" s="14">
+        <v>43091</v>
+      </c>
+      <c r="B428" s="2">
+        <v>429</v>
+      </c>
       <c r="E428" s="1" t="s">
         <v>10</v>
       </c>
@@ -13857,7 +13926,13 @@
         <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
       </c>
     </row>
-    <row r="429" spans="5:8">
+    <row r="429" spans="1:8">
+      <c r="A429" s="14">
+        <v>43091</v>
+      </c>
+      <c r="B429" s="2">
+        <v>430</v>
+      </c>
       <c r="E429" s="1" t="s">
         <v>10</v>
       </c>
@@ -13872,7 +13947,10 @@
         <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
       </c>
     </row>
-    <row r="430" spans="5:8">
+    <row r="430" spans="2:8">
+      <c r="B430" s="2">
+        <v>431</v>
+      </c>
       <c r="E430" s="1" t="s">
         <v>10</v>
       </c>

--- a/Document/更新日记/策划/【Titan】脚本更新记录_邓睿.xlsx
+++ b/Document/更新日记/策划/【Titan】脚本更新记录_邓睿.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20880" windowHeight="8970"/>
+    <workbookView windowWidth="19545" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627">
   <si>
     <t>更新日期</t>
   </si>
@@ -1859,6 +1859,114 @@
   </si>
   <si>
     <t>Spell.csv;Spell.bin；spelllogic.csv；buff.csv;buff.xml;effect.csv;effect.bin</t>
+  </si>
+  <si>
+    <t>幻影利刃大招描述修改</t>
+  </si>
+  <si>
+    <t>Spell.csv;Spell.bin；Herotalentconfig.csv;Spellslot.csv</t>
+  </si>
+  <si>
+    <t>升级音效距离提升</t>
+  </si>
+  <si>
+    <t>无面者释放XP时不隐身</t>
+  </si>
+  <si>
+    <t>effect.csv;effect.bin;buff.xml;buff.csv;spelllogic.csv;</t>
+  </si>
+  <si>
+    <t>巨盾勇士大招描述修改</t>
+  </si>
+  <si>
+    <t>巨盾Q转向僵直时间延长</t>
+  </si>
+  <si>
+    <t>摩托车展示音效</t>
+  </si>
+  <si>
+    <t>凛冬战魂技能描述修正</t>
+  </si>
+  <si>
+    <t>弓箭手技能描述修正</t>
+  </si>
+  <si>
+    <t>弓箭手攻速大招增加buff图标</t>
+  </si>
+  <si>
+    <t>生化魔人Q技能描述</t>
+  </si>
+  <si>
+    <t>生化魔人天赋描述</t>
+  </si>
+  <si>
+    <t>基地爆炸音效调整</t>
+  </si>
+  <si>
+    <t>狙击手燃烧弹天赋修正</t>
+  </si>
+  <si>
+    <t>herotalentconfig.csv；Spell.csv;Spell.bin；buff.xml;buff.csv;condition.csv;condition.bin</t>
+  </si>
+  <si>
+    <t>蛮族之刃危压天赋修正</t>
+  </si>
+  <si>
+    <t>机器人皮肤名</t>
+  </si>
+  <si>
+    <t>机器人暂时去除人声</t>
+  </si>
+  <si>
+    <t>Spell.csv;Spell.bin；effect.csv;effect.bin</t>
+  </si>
+  <si>
+    <t>蛮族之刃危压天赋真正修正</t>
+  </si>
+  <si>
+    <t>buff.xml;buff.csv;condition.csv;condition.bin</t>
+  </si>
+  <si>
+    <t>狙击手燃烧弹能够破隐</t>
+  </si>
+  <si>
+    <t>effect.csv;effect.bin；spelllogic.csv</t>
+  </si>
+  <si>
+    <t>回血天赋buff描述修改</t>
+  </si>
+  <si>
+    <t>巨盾撞晕天赋buff圆圈标识</t>
+  </si>
+  <si>
+    <t>钢铁纪元天赋描述简化</t>
+  </si>
+  <si>
+    <t>生化魔人普攻音效调整</t>
+  </si>
+  <si>
+    <t>龙猫光效缓存</t>
+  </si>
+  <si>
+    <t>李小龙Q受击音效</t>
+  </si>
+  <si>
+    <t>电竞小子R音效调整</t>
+  </si>
+  <si>
+    <t>龙猫Q人声概率播放</t>
+  </si>
+  <si>
+    <t>狙击手燃烧弹天赋去除反隐功能</t>
+  </si>
+  <si>
+    <t>spelllogic.csv;condition.csv;condition.bin</t>
+  </si>
+  <si>
+    <t>英雄描述优化</t>
+  </si>
+  <si>
+    <t>基地爆炸音效优先级调整</t>
   </si>
 </sst>
 </file>
@@ -1866,10 +1974,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1906,16 +2014,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1931,9 +2084,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1954,58 +2107,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2020,31 +2152,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2065,13 +2173,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2095,19 +2209,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2143,67 +2287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2239,13 +2323,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2265,6 +2373,21 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2294,6 +2417,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2316,30 +2450,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2357,11 +2467,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2373,10 +2481,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2385,133 +2493,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2911,8 +3019,8 @@
   <sheetPr/>
   <dimension ref="A1:H467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="D429" sqref="D429"/>
+    <sheetView tabSelected="1" topLeftCell="E429" workbookViewId="0">
+      <selection activeCell="H439" sqref="H439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
@@ -13857,7 +13965,7 @@
         <v>邓睿【全版本】[内部知晓]:龙猫妖术扩散和妖术精进配置方式调优。(修改文件:Spell.csv;Spell.bin；spelllogic.csv；Talenteffect.csv)</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" ht="24" spans="1:8">
       <c r="A426" s="14">
         <v>43091</v>
       </c>
@@ -13891,6 +13999,12 @@
       <c r="B427" s="2">
         <v>428</v>
       </c>
+      <c r="C427" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>592</v>
+      </c>
       <c r="E427" s="1" t="s">
         <v>10</v>
       </c>
@@ -13902,7 +14016,7 @@
       </c>
       <c r="H427" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
+        <v>邓睿【全版本】[内部知晓]:幻影利刃大招描述修改。(修改文件:Spell.csv;Spell.bin；Herotalentconfig.csv;Spellslot.csv)</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13912,6 +14026,12 @@
       <c r="B428" s="2">
         <v>429</v>
       </c>
+      <c r="C428" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E428" s="1" t="s">
         <v>10</v>
       </c>
@@ -13923,16 +14043,22 @@
       </c>
       <c r="H428" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
+        <v>邓睿【全版本】[内部知晓]:升级音效距离提升。(修改文件:Soundconfig.csv)</v>
       </c>
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="14">
-        <v>43091</v>
+        <v>43092</v>
       </c>
       <c r="B429" s="2">
         <v>430</v>
       </c>
+      <c r="C429" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>595</v>
+      </c>
       <c r="E429" s="1" t="s">
         <v>10</v>
       </c>
@@ -13944,13 +14070,22 @@
       </c>
       <c r="H429" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="430" spans="2:8">
+        <v>邓睿【全版本】[内部知晓]:无面者释放XP时不隐身。(修改文件:effect.csv;effect.bin;buff.xml;buff.csv;spelllogic.csv;)</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="A430" s="14">
+        <v>43092</v>
+      </c>
       <c r="B430" s="2">
         <v>431</v>
       </c>
+      <c r="C430" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E430" s="1" t="s">
         <v>10</v>
       </c>
@@ -13962,10 +14097,22 @@
       </c>
       <c r="H430" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="431" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:巨盾勇士大招描述修改。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="A431" s="14">
+        <v>43092</v>
+      </c>
+      <c r="B431" s="2">
+        <v>432</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E431" s="1" t="s">
         <v>10</v>
       </c>
@@ -13977,10 +14124,22 @@
       </c>
       <c r="H431" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="432" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:巨盾Q转向僵直时间延长。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="A432" s="14">
+        <v>43092</v>
+      </c>
+      <c r="B432" s="2">
+        <v>433</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="E432" s="1" t="s">
         <v>10</v>
       </c>
@@ -13992,10 +14151,22 @@
       </c>
       <c r="H432" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="433" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:摩托车展示音效。(修改文件:Soundconfig.csv；Skininfo.csv)</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="A433" s="14">
+        <v>43094</v>
+      </c>
+      <c r="B433" s="2">
+        <v>434</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E433" s="1" t="s">
         <v>10</v>
       </c>
@@ -14007,10 +14178,22 @@
       </c>
       <c r="H433" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="434" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:凛冬战魂技能描述修正。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="A434" s="14">
+        <v>43094</v>
+      </c>
+      <c r="B434" s="2">
+        <v>435</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E434" s="1" t="s">
         <v>10</v>
       </c>
@@ -14022,10 +14205,22 @@
       </c>
       <c r="H434" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="435" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:弓箭手技能描述修正。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="A435" s="14">
+        <v>43094</v>
+      </c>
+      <c r="B435" s="2">
+        <v>436</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E435" s="1" t="s">
         <v>10</v>
       </c>
@@ -14037,10 +14232,22 @@
       </c>
       <c r="H435" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="436" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:弓箭手攻速大招增加buff图标。(修改文件:buff.xml;buff.csv)</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="A436" s="14">
+        <v>43094</v>
+      </c>
+      <c r="B436" s="2">
+        <v>437</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E436" s="1" t="s">
         <v>10</v>
       </c>
@@ -14052,10 +14259,22 @@
       </c>
       <c r="H436" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="437" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:生化魔人Q技能描述。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="A437" s="14">
+        <v>43094</v>
+      </c>
+      <c r="B437" s="2">
+        <v>438</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="E437" s="1" t="s">
         <v>10</v>
       </c>
@@ -14067,10 +14286,22 @@
       </c>
       <c r="H437" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="438" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:生化魔人天赋描述。(修改文件:herotalentconfig.csv)</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438" s="14">
+        <v>43094</v>
+      </c>
+      <c r="B438" s="2">
+        <v>439</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E438" s="1" t="s">
         <v>10</v>
       </c>
@@ -14082,10 +14313,22 @@
       </c>
       <c r="H438" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="439" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:基地爆炸音效调整。(修改文件:Soundconfig.csv)</v>
+      </c>
+    </row>
+    <row r="439" ht="24" spans="1:8">
+      <c r="A439" s="14">
+        <v>43094</v>
+      </c>
+      <c r="B439" s="2">
+        <v>440</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>606</v>
+      </c>
       <c r="E439" s="1" t="s">
         <v>10</v>
       </c>
@@ -14097,10 +14340,22 @@
       </c>
       <c r="H439" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="440" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:狙击手燃烧弹天赋修正。(修改文件:herotalentconfig.csv；Spell.csv;Spell.bin；buff.xml;buff.csv;condition.csv;condition.bin)</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
+      <c r="A440" s="14">
+        <v>43094</v>
+      </c>
+      <c r="B440" s="2">
+        <v>441</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="E440" s="1" t="s">
         <v>10</v>
       </c>
@@ -14112,10 +14367,22 @@
       </c>
       <c r="H440" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="441" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:蛮族之刃危压天赋修正。(修改文件:buff.xml;buff.csv;SpellLogic.csv)</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
+      <c r="A441" s="14">
+        <v>43094</v>
+      </c>
+      <c r="B441" s="2">
+        <v>442</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E441" s="1" t="s">
         <v>10</v>
       </c>
@@ -14127,10 +14394,22 @@
       </c>
       <c r="H441" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="442" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:机器人皮肤名。(修改文件:skininfo.csv;)</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
+      <c r="A442" s="14">
+        <v>43095</v>
+      </c>
+      <c r="B442" s="2">
+        <v>443</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>610</v>
+      </c>
       <c r="E442" s="1" t="s">
         <v>10</v>
       </c>
@@ -14142,10 +14421,22 @@
       </c>
       <c r="H442" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="443" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:机器人暂时去除人声。(修改文件:Spell.csv;Spell.bin；effect.csv;effect.bin)</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
+      <c r="A443" s="14">
+        <v>43095</v>
+      </c>
+      <c r="B443" s="2">
+        <v>444</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>612</v>
+      </c>
       <c r="E443" s="1" t="s">
         <v>10</v>
       </c>
@@ -14157,10 +14448,22 @@
       </c>
       <c r="H443" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="444" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:蛮族之刃危压天赋真正修正。(修改文件:buff.xml;buff.csv;condition.csv;condition.bin)</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
+      <c r="A444" s="14">
+        <v>43095</v>
+      </c>
+      <c r="B444" s="2">
+        <v>445</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>614</v>
+      </c>
       <c r="E444" s="1" t="s">
         <v>10</v>
       </c>
@@ -14172,10 +14475,22 @@
       </c>
       <c r="H444" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="445" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:狙击手燃烧弹能够破隐。(修改文件:effect.csv;effect.bin；spelllogic.csv)</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
+      <c r="A445" s="14">
+        <v>43095</v>
+      </c>
+      <c r="B445" s="2">
+        <v>446</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E445" s="1" t="s">
         <v>10</v>
       </c>
@@ -14187,10 +14502,22 @@
       </c>
       <c r="H445" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="446" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:回血天赋buff描述修改。(修改文件:buff.xml;buff.csv)</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="A446" s="14">
+        <v>43095</v>
+      </c>
+      <c r="B446" s="2">
+        <v>447</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E446" s="1" t="s">
         <v>10</v>
       </c>
@@ -14202,10 +14529,22 @@
       </c>
       <c r="H446" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="447" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:巨盾撞晕天赋buff圆圈标识。(修改文件:buff.xml;buff.csv;)</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
+      <c r="A447" s="14">
+        <v>43095</v>
+      </c>
+      <c r="B447" s="2">
+        <v>448</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="E447" s="1" t="s">
         <v>10</v>
       </c>
@@ -14217,10 +14556,22 @@
       </c>
       <c r="H447" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="448" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:钢铁纪元天赋描述简化。(修改文件:herotalentconfig.csv)</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
+      <c r="A448" s="14">
+        <v>43096</v>
+      </c>
+      <c r="B448" s="2">
+        <v>449</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E448" s="1" t="s">
         <v>10</v>
       </c>
@@ -14232,10 +14583,22 @@
       </c>
       <c r="H448" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="449" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:生化魔人普攻音效调整。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="A449" s="14">
+        <v>43096</v>
+      </c>
+      <c r="B449" s="2">
+        <v>450</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="E449" s="1" t="s">
         <v>10</v>
       </c>
@@ -14247,10 +14610,22 @@
       </c>
       <c r="H449" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="450" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:龙猫光效缓存。(修改文件:PreLoadLight.csv)</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
+      <c r="A450" s="14">
+        <v>43096</v>
+      </c>
+      <c r="B450" s="2">
+        <v>451</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>545</v>
+      </c>
       <c r="E450" s="1" t="s">
         <v>10</v>
       </c>
@@ -14262,10 +14637,22 @@
       </c>
       <c r="H450" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="451" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:李小龙Q受击音效。(修改文件:Spell.csv;Spell.bin；Soundconfig.csv)</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
+      <c r="A451" s="14">
+        <v>43096</v>
+      </c>
+      <c r="B451" s="2">
+        <v>452</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>545</v>
+      </c>
       <c r="E451" s="1" t="s">
         <v>10</v>
       </c>
@@ -14277,10 +14664,22 @@
       </c>
       <c r="H451" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="452" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:电竞小子R音效调整。(修改文件:Spell.csv;Spell.bin；Soundconfig.csv)</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
+      <c r="A452" s="14">
+        <v>43096</v>
+      </c>
+      <c r="B452" s="2">
+        <v>453</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="E452" s="1" t="s">
         <v>10</v>
       </c>
@@ -14292,10 +14691,22 @@
       </c>
       <c r="H452" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="453" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:龙猫Q人声概率播放。(修改文件:Soundconfig.csv；RandomSound.csv)</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
+      <c r="A453" s="14">
+        <v>43096</v>
+      </c>
+      <c r="B453" s="2">
+        <v>454</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>624</v>
+      </c>
       <c r="E453" s="1" t="s">
         <v>10</v>
       </c>
@@ -14307,10 +14718,22 @@
       </c>
       <c r="H453" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="454" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:狙击手燃烧弹天赋去除反隐功能。(修改文件:spelllogic.csv;condition.csv;condition.bin)</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
+      <c r="A454" s="14">
+        <v>43096</v>
+      </c>
+      <c r="B454" s="2">
+        <v>455</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E454" s="1" t="s">
         <v>10</v>
       </c>
@@ -14322,10 +14745,22 @@
       </c>
       <c r="H454" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="455" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:英雄描述优化。(修改文件:Herotype.csv)</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
+      <c r="A455" s="14">
+        <v>43096</v>
+      </c>
+      <c r="B455" s="2">
+        <v>456</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E455" s="1" t="s">
         <v>10</v>
       </c>
@@ -14337,7 +14772,7 @@
       </c>
       <c r="H455" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
+        <v>邓睿【全版本】[内部知晓]:基地爆炸音效优先级调整。(修改文件:Soundconfig.csv)</v>
       </c>
     </row>
     <row r="456" spans="5:8">

--- a/Document/更新日记/策划/【Titan】脚本更新记录_邓睿.xlsx
+++ b/Document/更新日记/策划/【Titan】脚本更新记录_邓睿.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19545" windowHeight="9060"/>
+    <workbookView windowWidth="19965" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638">
   <si>
     <t>更新日期</t>
   </si>
@@ -1967,6 +1967,39 @@
   </si>
   <si>
     <t>基地爆炸音效优先级调整</t>
+  </si>
+  <si>
+    <t>闲适人声距离调整</t>
+  </si>
+  <si>
+    <t>删除决胜控制音效配置</t>
+  </si>
+  <si>
+    <t>XP解锁描述</t>
+  </si>
+  <si>
+    <t>HeroXPskill.csv</t>
+  </si>
+  <si>
+    <t>火女被动描述修改</t>
+  </si>
+  <si>
+    <t>虚空邪镰名称修正</t>
+  </si>
+  <si>
+    <t>Spell.csv;Spell.bin；Skininfo.csv;Herotype.csv;Herotalentconfig.csv</t>
+  </si>
+  <si>
+    <t>火女天赋描述修正</t>
+  </si>
+  <si>
+    <t>降低小炮普攻人声频率</t>
+  </si>
+  <si>
+    <t>龙之震荡对小兵有效</t>
+  </si>
+  <si>
+    <t>condition.csv;condition.bin</t>
   </si>
 </sst>
 </file>
@@ -1974,9 +2007,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -2015,60 +2048,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2082,11 +2062,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2106,15 +2108,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2122,7 +2125,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2152,7 +2155,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2173,13 +2206,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2191,25 +2290,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2221,37 +2338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2275,60 +2362,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2347,13 +2380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2373,21 +2406,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2411,26 +2429,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2468,8 +2466,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2481,10 +2514,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2493,137 +2526,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2667,6 +2700,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3019,8 +3055,8 @@
   <sheetPr/>
   <dimension ref="A1:H467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E429" workbookViewId="0">
-      <selection activeCell="H439" sqref="H439"/>
+    <sheetView tabSelected="1" topLeftCell="B444" workbookViewId="0">
+      <selection activeCell="D454" sqref="D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
@@ -14775,7 +14811,19 @@
         <v>邓睿【全版本】[内部知晓]:基地爆炸音效优先级调整。(修改文件:Soundconfig.csv)</v>
       </c>
     </row>
-    <row r="456" spans="5:8">
+    <row r="456" spans="1:8">
+      <c r="A456" s="15">
+        <v>43097</v>
+      </c>
+      <c r="B456" s="2">
+        <v>457</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E456" s="1" t="s">
         <v>10</v>
       </c>
@@ -14787,10 +14835,22 @@
       </c>
       <c r="H456" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="457" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:闲适人声距离调整。(修改文件:Soundconfig.csv)</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
+      <c r="A457" s="15">
+        <v>43097</v>
+      </c>
+      <c r="B457" s="2">
+        <v>458</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E457" s="1" t="s">
         <v>10</v>
       </c>
@@ -14802,10 +14862,22 @@
       </c>
       <c r="H457" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="458" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:删除决胜控制音效配置。(修改文件:Soundconfig.csv)</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
+      <c r="A458" s="15">
+        <v>43097</v>
+      </c>
+      <c r="B458" s="2">
+        <v>459</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>630</v>
+      </c>
       <c r="E458" s="1" t="s">
         <v>10</v>
       </c>
@@ -14817,10 +14889,22 @@
       </c>
       <c r="H458" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="459" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:XP解锁描述。(修改文件:HeroXPskill.csv)</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
+      <c r="A459" s="15">
+        <v>43097</v>
+      </c>
+      <c r="B459" s="2">
+        <v>460</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E459" s="1" t="s">
         <v>10</v>
       </c>
@@ -14832,10 +14916,22 @@
       </c>
       <c r="H459" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="460" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:火女被动描述修改。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
+      <c r="A460" s="15">
+        <v>43097</v>
+      </c>
+      <c r="B460" s="2">
+        <v>461</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>633</v>
+      </c>
       <c r="E460" s="1" t="s">
         <v>10</v>
       </c>
@@ -14847,10 +14943,22 @@
       </c>
       <c r="H460" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="461" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:虚空邪镰名称修正。(修改文件:Spell.csv;Spell.bin；Skininfo.csv;Herotype.csv;Herotalentconfig.csv)</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
+      <c r="A461" s="15">
+        <v>43097</v>
+      </c>
+      <c r="B461" s="2">
+        <v>462</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="E461" s="1" t="s">
         <v>10</v>
       </c>
@@ -14862,10 +14970,22 @@
       </c>
       <c r="H461" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="462" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:火女天赋描述修正。(修改文件:herotalentconfig.csv)</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
+      <c r="A462" s="15">
+        <v>43097</v>
+      </c>
+      <c r="B462" s="2">
+        <v>463</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>498</v>
+      </c>
       <c r="E462" s="1" t="s">
         <v>10</v>
       </c>
@@ -14877,10 +14997,22 @@
       </c>
       <c r="H462" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="463" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:降低小炮普攻人声频率。(修改文件:RandomSound.csv)</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
+      <c r="A463" s="15">
+        <v>43097</v>
+      </c>
+      <c r="B463" s="2">
+        <v>464</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>637</v>
+      </c>
       <c r="E463" s="1" t="s">
         <v>10</v>
       </c>
@@ -14892,10 +15024,16 @@
       </c>
       <c r="H463" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="464" spans="5:8">
+        <v>邓睿【全版本】[内部知晓]:龙之震荡对小兵有效。(修改文件:condition.csv;condition.bin)</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
+      <c r="A464" s="15">
+        <v>43097</v>
+      </c>
+      <c r="B464" s="2">
+        <v>465</v>
+      </c>
       <c r="E464" s="1" t="s">
         <v>10</v>
       </c>
@@ -14910,7 +15048,13 @@
         <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
       </c>
     </row>
-    <row r="465" spans="5:8">
+    <row r="465" spans="1:8">
+      <c r="A465" s="15">
+        <v>43097</v>
+      </c>
+      <c r="B465" s="2">
+        <v>466</v>
+      </c>
       <c r="E465" s="1" t="s">
         <v>10</v>
       </c>
@@ -14925,7 +15069,13 @@
         <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
       </c>
     </row>
-    <row r="466" spans="5:8">
+    <row r="466" spans="1:8">
+      <c r="A466" s="15">
+        <v>43097</v>
+      </c>
+      <c r="B466" s="2">
+        <v>467</v>
+      </c>
       <c r="E466" s="1" t="s">
         <v>10</v>
       </c>

--- a/Document/更新日记/策划/【Titan】脚本更新记录_邓睿.xlsx
+++ b/Document/更新日记/策划/【Titan】脚本更新记录_邓睿.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639">
   <si>
     <t>更新日期</t>
   </si>
@@ -2000,6 +2000,9 @@
   </si>
   <si>
     <t>condition.csv;condition.bin</t>
+  </si>
+  <si>
+    <t>龙之震荡描述</t>
   </si>
 </sst>
 </file>
@@ -2007,10 +2010,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2055,7 +2058,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2063,22 +2074,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2092,25 +2096,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2132,15 +2127,53 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2155,37 +2188,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2206,7 +2209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2224,30 +2227,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2260,19 +2239,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2284,43 +2287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2332,13 +2299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2362,6 +2323,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2380,13 +2383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2409,11 +2412,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2433,6 +2466,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2448,61 +2501,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2514,10 +2517,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2526,97 +2529,97 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2625,10 +2628,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2637,22 +2640,22 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3056,7 +3059,7 @@
   <dimension ref="A1:H467"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B444" workbookViewId="0">
-      <selection activeCell="D454" sqref="D454"/>
+      <selection activeCell="D463" sqref="D463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
@@ -15034,6 +15037,12 @@
       <c r="B464" s="2">
         <v>465</v>
       </c>
+      <c r="C464" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="E464" s="1" t="s">
         <v>10</v>
       </c>
@@ -15045,7 +15054,7 @@
       </c>
       <c r="H464" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>邓睿【全版本】[内部知晓]:。(修改文件:)</v>
+        <v>邓睿【全版本】[内部知晓]:龙之震荡描述。(修改文件:herotalentconfig.csv)</v>
       </c>
     </row>
     <row r="465" spans="1:8">
